--- a/patienten_daten.xlsx
+++ b/patienten_daten.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xenia Kobeleva\Dropbox\Beuth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{659617BB-8434-49C7-BE56-B5E779F81685}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B28CD9-F4ED-48D3-ACE5-A2488FC0B51C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6860" yWindow="1870" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>vorname</t>
   </si>
@@ -55,22 +55,73 @@
     <t>Stefanson</t>
   </si>
   <si>
+    <t>363632</t>
+  </si>
+  <si>
+    <t>Kersten</t>
+  </si>
+  <si>
+    <t>Stein</t>
+  </si>
+  <si>
     <t>2525252</t>
   </si>
   <si>
-    <t>Kersten</t>
-  </si>
-  <si>
-    <t>Stein</t>
+    <t>Marga</t>
+  </si>
+  <si>
+    <t>Hoffmann</t>
   </si>
   <si>
     <t>3636463</t>
   </si>
   <si>
-    <t>Marga</t>
-  </si>
-  <si>
-    <t>Hoffmann</t>
+    <t>Manfred</t>
+  </si>
+  <si>
+    <t>Klausert</t>
+  </si>
+  <si>
+    <t>333333</t>
+  </si>
+  <si>
+    <t>Klaus</t>
+  </si>
+  <si>
+    <t>Kleber</t>
+  </si>
+  <si>
+    <t>4444</t>
+  </si>
+  <si>
+    <t>Horst</t>
+  </si>
+  <si>
+    <t>44445</t>
+  </si>
+  <si>
+    <t>Karl</t>
+  </si>
+  <si>
+    <t>Klabauter</t>
+  </si>
+  <si>
+    <t>263683</t>
+  </si>
+  <si>
+    <t>Gommels</t>
+  </si>
+  <si>
+    <t>44444</t>
+  </si>
+  <si>
+    <t>Lisa</t>
+  </si>
+  <si>
+    <t>Michaels</t>
+  </si>
+  <si>
+    <t>111112</t>
   </si>
 </sst>
 </file>
@@ -457,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -505,8 +556,8 @@
       <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4">
-        <v>363632</v>
+      <c r="C4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -517,7 +568,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -528,7 +579,73 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/patienten_daten.xlsx
+++ b/patienten_daten.xlsx
@@ -1,134 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xenia Kobeleva\Dropbox\Beuth\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B28CD9-F4ED-48D3-ACE5-A2488FC0B51C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
-  <si>
-    <t>vorname</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>pid</t>
-  </si>
-  <si>
-    <t>Bernd</t>
-  </si>
-  <si>
-    <t>Weber</t>
-  </si>
-  <si>
-    <t>28374467</t>
-  </si>
-  <si>
-    <t>Stefan</t>
-  </si>
-  <si>
-    <t>Koch</t>
-  </si>
-  <si>
-    <t>3636365</t>
-  </si>
-  <si>
-    <t>Thomas</t>
-  </si>
-  <si>
-    <t>Stefanson</t>
-  </si>
-  <si>
-    <t>363632</t>
-  </si>
-  <si>
-    <t>Kersten</t>
-  </si>
-  <si>
-    <t>Stein</t>
-  </si>
-  <si>
-    <t>2525252</t>
-  </si>
-  <si>
-    <t>Marga</t>
-  </si>
-  <si>
-    <t>Hoffmann</t>
-  </si>
-  <si>
-    <t>3636463</t>
-  </si>
-  <si>
-    <t>Manfred</t>
-  </si>
-  <si>
-    <t>Klausert</t>
-  </si>
-  <si>
-    <t>333333</t>
-  </si>
-  <si>
-    <t>Klaus</t>
-  </si>
-  <si>
-    <t>Kleber</t>
-  </si>
-  <si>
-    <t>4444</t>
-  </si>
-  <si>
-    <t>Horst</t>
-  </si>
-  <si>
-    <t>44445</t>
-  </si>
-  <si>
-    <t>Karl</t>
-  </si>
-  <si>
-    <t>Klabauter</t>
-  </si>
-  <si>
-    <t>263683</t>
-  </si>
-  <si>
-    <t>Gommels</t>
-  </si>
-  <si>
-    <t>44444</t>
-  </si>
-  <si>
-    <t>Lisa</t>
-  </si>
-  <si>
-    <t>Michaels</t>
-  </si>
-  <si>
-    <t>111112</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,23 +59,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -230,7 +109,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -262,27 +141,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -314,24 +175,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -507,145 +350,266 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" t="s">
-        <v>33</v>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>vorname</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pid</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Bernd</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Weber</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>28374467</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Stefan</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Koch</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>3636365</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Thomas</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Stefanson</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>363632</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Kersten</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Stein</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2525252</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Marga</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hoffmann</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>3636463</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Manfred</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Klausert</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>333333</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Klaus</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Kleber</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>4444</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Thomas</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Horst</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>44445</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Karl</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Klabauter</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>263683</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Lisa</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Gommels</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>44444</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Lisa</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Michaels</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>111112</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Klaus</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Kleber</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>4747573</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Manu</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Maus</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>28374467</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Klaus</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Kleinbein</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>666666</t>
+        </is>
       </c>
     </row>
   </sheetData>
